--- a/data/Rivers/QueenStreetDrainatLHorowhenua_5ecfdaee22.xlsx
+++ b/data/Rivers/QueenStreetDrainatLHorowhenua_5ecfdaee22.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -644,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -761,7 +761,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -796,7 +796,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -835,7 +835,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -874,7 +874,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -913,7 +913,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -952,7 +952,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -987,7 +987,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5769,7 +5769,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6759,7 +6759,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7827,7 +7827,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8127,7 +8127,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8298,7 +8298,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8500,7 +8500,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8652,7 +8652,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8730,7 +8730,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8851,7 +8851,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8886,7 +8886,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -9073,7 +9073,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9490,7 +9490,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9720,7 +9720,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9802,7 +9802,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9946,7 +9946,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -9985,7 +9985,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10059,7 +10059,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10258,7 +10258,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10328,7 +10328,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10515,7 +10515,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10554,7 +10554,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10753,7 +10753,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -10858,7 +10858,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -11010,7 +11010,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -11049,7 +11049,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -11127,7 +11127,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11248,7 +11248,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11318,7 +11318,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11392,7 +11392,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11470,7 +11470,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11505,7 +11505,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11544,7 +11544,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11622,7 +11622,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11743,7 +11743,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11778,7 +11778,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -11813,7 +11813,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -11887,7 +11887,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -11926,7 +11926,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -12000,7 +12000,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -12039,7 +12039,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -12156,7 +12156,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -12195,7 +12195,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -12238,7 +12238,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12382,7 +12382,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -12495,7 +12495,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -12534,7 +12534,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12651,7 +12651,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12768,7 +12768,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -12838,7 +12838,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -12877,7 +12877,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -12916,7 +12916,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -12955,7 +12955,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -13107,7 +13107,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -13146,7 +13146,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -13185,7 +13185,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -13263,7 +13263,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -13333,7 +13333,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -13411,7 +13411,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -13446,7 +13446,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -13485,7 +13485,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -13563,7 +13563,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -13602,7 +13602,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -13684,7 +13684,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -13754,7 +13754,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -13789,7 +13789,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -13828,7 +13828,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -13906,7 +13906,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -13941,7 +13941,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -13980,7 +13980,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -14058,7 +14058,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -14097,7 +14097,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -14136,7 +14136,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -14214,7 +14214,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -14249,7 +14249,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -14284,7 +14284,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -14362,7 +14362,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -14397,7 +14397,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -14514,7 +14514,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -14592,7 +14592,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -14635,7 +14635,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -14670,7 +14670,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -14705,7 +14705,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -14740,7 +14740,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -14779,7 +14779,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -14818,7 +14818,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -14857,7 +14857,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -14892,7 +14892,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -14931,7 +14931,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -15048,7 +15048,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -15130,7 +15130,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -15165,7 +15165,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -15235,7 +15235,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -15313,7 +15313,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -15387,7 +15387,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -15426,7 +15426,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -15504,7 +15504,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -15582,7 +15582,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -15625,7 +15625,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -15660,7 +15660,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -15695,7 +15695,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -15730,7 +15730,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -15835,7 +15835,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -15870,7 +15870,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -15940,7 +15940,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -16010,7 +16010,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -16107,7 +16107,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -16185,7 +16185,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -16224,7 +16224,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -16263,7 +16263,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -16298,7 +16298,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -16337,7 +16337,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -16415,7 +16415,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -16454,7 +16454,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -16493,7 +16493,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -16536,7 +16536,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -16606,7 +16606,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -16641,7 +16641,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -16680,7 +16680,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -16719,7 +16719,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -16758,7 +16758,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -16793,7 +16793,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -16832,7 +16832,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -16910,7 +16910,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -16949,7 +16949,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -16988,7 +16988,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -17031,7 +17031,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -17101,7 +17101,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -17136,7 +17136,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -17175,7 +17175,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -17214,7 +17214,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -17249,7 +17249,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -17288,7 +17288,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -17366,7 +17366,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -17405,7 +17405,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -17444,7 +17444,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -17487,7 +17487,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -17522,7 +17522,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -17557,7 +17557,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -17592,7 +17592,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -17631,7 +17631,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -17670,7 +17670,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -17744,7 +17744,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -17783,7 +17783,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -17861,7 +17861,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -17900,7 +17900,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -17939,7 +17939,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -17982,7 +17982,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -18017,7 +18017,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -18052,7 +18052,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C459" s="2" t="n">
@@ -18087,7 +18087,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -18126,7 +18126,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -18165,7 +18165,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -18204,7 +18204,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -18239,7 +18239,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -18278,7 +18278,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -18356,7 +18356,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C467" s="2" t="n">
@@ -18395,7 +18395,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -18434,7 +18434,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -18477,7 +18477,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -18547,7 +18547,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -18582,7 +18582,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -18621,7 +18621,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -18660,7 +18660,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -18695,7 +18695,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -18734,7 +18734,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -18812,7 +18812,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -18890,7 +18890,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -18933,7 +18933,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -18968,7 +18968,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C483" s="2" t="n">
@@ -19003,7 +19003,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
@@ -19038,7 +19038,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -19077,7 +19077,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -19155,7 +19155,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C488" s="2" t="n">
@@ -19190,7 +19190,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C489" s="2" t="n">
@@ -19229,7 +19229,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C490" s="2" t="n">
@@ -19307,7 +19307,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C492" s="2" t="n">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -19385,7 +19385,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -19428,7 +19428,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
@@ -19463,7 +19463,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
@@ -19498,7 +19498,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
@@ -19533,7 +19533,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C498" s="2" t="n">
@@ -19572,7 +19572,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C499" s="2" t="n">
@@ -19611,7 +19611,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C500" s="2" t="n">
@@ -19646,7 +19646,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
@@ -19685,7 +19685,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -19763,7 +19763,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
@@ -19841,7 +19841,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -19884,7 +19884,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C507" s="2" t="n">
@@ -19919,7 +19919,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C508" s="2" t="n">
@@ -19954,7 +19954,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -19989,7 +19989,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C510" s="2" t="n">
@@ -20028,7 +20028,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -20067,7 +20067,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -20106,7 +20106,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C513" s="2" t="n">
@@ -20141,7 +20141,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -20180,7 +20180,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C515" s="2" t="n">
@@ -20258,7 +20258,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
@@ -20297,7 +20297,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C518" s="2" t="n">
@@ -20336,7 +20336,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -20379,7 +20379,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -20414,7 +20414,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C521" s="2" t="n">
@@ -20449,7 +20449,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C522" s="2" t="n">
@@ -20484,7 +20484,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -20523,7 +20523,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
@@ -20562,7 +20562,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C525" s="2" t="n">
@@ -20601,7 +20601,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
@@ -20636,7 +20636,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
@@ -20675,7 +20675,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
@@ -20753,7 +20753,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C530" s="2" t="n">
@@ -20792,7 +20792,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -20831,7 +20831,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -20874,7 +20874,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
@@ -20909,7 +20909,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
@@ -20944,7 +20944,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -20979,7 +20979,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -21018,7 +21018,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C537" s="2" t="n">
@@ -21057,7 +21057,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C538" s="2" t="n">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C539" s="2" t="n">
@@ -21131,7 +21131,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -21170,7 +21170,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
@@ -21287,7 +21287,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
@@ -21369,7 +21369,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C546" s="2" t="n">
@@ -21404,7 +21404,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C547" s="2" t="n">
@@ -21439,7 +21439,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
@@ -21474,7 +21474,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -21513,7 +21513,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
@@ -21552,7 +21552,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C551" s="2" t="n">
@@ -21587,7 +21587,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C552" s="2" t="n">
@@ -21626,7 +21626,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C553" s="2" t="n">
@@ -21704,7 +21704,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C555" s="2" t="n">
@@ -21743,7 +21743,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -21825,7 +21825,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -21860,7 +21860,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
@@ -21895,7 +21895,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -21930,7 +21930,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C561" s="2" t="n">
@@ -21969,7 +21969,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C562" s="2" t="n">
@@ -22008,7 +22008,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
@@ -22047,7 +22047,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -22082,7 +22082,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -22121,7 +22121,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -22199,7 +22199,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -22238,7 +22238,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C569" s="2" t="n">
@@ -22277,7 +22277,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
@@ -22320,7 +22320,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
@@ -22355,7 +22355,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
@@ -22390,7 +22390,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C573" s="2" t="n">
@@ -22425,7 +22425,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
@@ -22464,7 +22464,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
@@ -22503,7 +22503,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -22546,7 +22546,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C577" s="2" t="n">
@@ -22581,7 +22581,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C578" s="2" t="n">
@@ -22620,7 +22620,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C579" s="2" t="n">
@@ -22698,7 +22698,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -22737,7 +22737,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -22776,7 +22776,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C584" s="2" t="n">
@@ -22854,7 +22854,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C585" s="2" t="n">
@@ -22889,7 +22889,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C586" s="2" t="n">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -22963,7 +22963,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C588" s="2" t="n">
@@ -23002,7 +23002,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -23041,7 +23041,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
@@ -23076,7 +23076,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -23115,7 +23115,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C592" s="2" t="n">
@@ -23193,7 +23193,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C594" s="2" t="n">
@@ -23232,7 +23232,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
@@ -23271,7 +23271,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C596" s="2" t="n">
@@ -23314,7 +23314,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C597" s="2" t="n">
@@ -23349,7 +23349,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C598" s="2" t="n">
@@ -23384,7 +23384,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
@@ -23419,7 +23419,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -23458,7 +23458,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C601" s="2" t="n">
@@ -23497,7 +23497,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C602" s="2" t="n">
@@ -23532,7 +23532,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -23571,7 +23571,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -23649,7 +23649,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C606" s="2" t="n">
@@ -23688,7 +23688,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C607" s="2" t="n">
@@ -23727,7 +23727,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
@@ -23770,7 +23770,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C609" s="2" t="n">
@@ -23805,7 +23805,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C610" s="2" t="n">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -23875,7 +23875,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C612" s="2" t="n">
@@ -23914,7 +23914,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -23953,7 +23953,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -23992,7 +23992,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C616" s="2" t="n">
@@ -24066,7 +24066,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C617" s="2" t="n">
@@ -24144,7 +24144,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -24183,7 +24183,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -24222,7 +24222,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C621" s="2" t="n">
@@ -24265,7 +24265,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
@@ -24300,7 +24300,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -24335,7 +24335,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -24370,7 +24370,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C625" s="2" t="n">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C626" s="2" t="n">
@@ -24448,7 +24448,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -24487,7 +24487,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C629" s="2" t="n">
@@ -24561,7 +24561,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C630" s="2" t="n">
@@ -24639,7 +24639,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
@@ -24678,7 +24678,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C633" s="2" t="n">
@@ -24717,7 +24717,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C634" s="2" t="n">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
@@ -24795,7 +24795,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C636" s="2" t="n">
@@ -24830,7 +24830,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -24865,7 +24865,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C638" s="2" t="n">
@@ -24904,7 +24904,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C639" s="2" t="n">
@@ -24943,7 +24943,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C640" s="2" t="n">
@@ -24978,7 +24978,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C641" s="2" t="n">
@@ -25017,7 +25017,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C642" s="2" t="n">
@@ -25095,7 +25095,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C644" s="2" t="n">
@@ -25134,7 +25134,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C645" s="2" t="n">
@@ -25173,7 +25173,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C646" s="2" t="n">
@@ -25216,7 +25216,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -25251,7 +25251,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
@@ -25286,7 +25286,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C649" s="2" t="n">
@@ -25321,7 +25321,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -25360,7 +25360,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
@@ -25399,7 +25399,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C652" s="2" t="n">
@@ -25438,7 +25438,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C653" s="2" t="n">
@@ -25473,7 +25473,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C654" s="2" t="n">
@@ -25512,7 +25512,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C655" s="2" t="n">
@@ -25590,7 +25590,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C657" s="2" t="n">
@@ -25629,7 +25629,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C658" s="2" t="n">
@@ -25668,7 +25668,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C659" s="2" t="n">
@@ -25711,7 +25711,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -25781,7 +25781,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">
@@ -25816,7 +25816,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C663" s="2" t="n">
@@ -25855,7 +25855,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C664" s="2" t="n">
@@ -25894,7 +25894,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C665" s="2" t="n">
@@ -25929,7 +25929,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C666" s="2" t="n">
@@ -25968,7 +25968,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C667" s="2" t="n">
@@ -26046,7 +26046,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
@@ -26085,7 +26085,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C670" s="2" t="n">
@@ -26124,7 +26124,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C671" s="2" t="n">
@@ -26167,7 +26167,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C672" s="2" t="n">
@@ -26202,7 +26202,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C673" s="2" t="n">
@@ -26237,7 +26237,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
@@ -26272,7 +26272,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C675" s="2" t="n">
@@ -26311,7 +26311,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C676" s="2" t="n">
@@ -26354,7 +26354,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C677" s="2" t="n">
@@ -26393,7 +26393,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C678" s="2" t="n">
@@ -26436,7 +26436,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C679" s="2" t="n">
@@ -26514,7 +26514,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C681" s="2" t="n">
@@ -26557,7 +26557,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C682" s="2" t="n">
@@ -26600,7 +26600,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C683" s="2" t="n">
@@ -26643,7 +26643,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C684" s="2" t="n">
@@ -26682,7 +26682,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C685" s="2" t="n">
@@ -26721,7 +26721,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C686" s="2" t="n">
@@ -26760,7 +26760,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C687" s="2" t="n">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C688" s="2" t="n">
@@ -26846,7 +26846,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C689" s="2" t="n">
@@ -26885,7 +26885,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C690" s="2" t="n">
@@ -26924,7 +26924,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C691" s="2" t="n">
@@ -26967,7 +26967,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C692" s="2" t="n">
@@ -27045,7 +27045,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C694" s="2" t="n">
@@ -27088,7 +27088,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C695" s="2" t="n">
@@ -27131,7 +27131,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C696" s="2" t="n">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C697" s="2" t="n">
@@ -27213,7 +27213,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C698" s="2" t="n">
@@ -27252,7 +27252,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C699" s="2" t="n">
@@ -27291,7 +27291,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C700" s="2" t="n">
@@ -27334,7 +27334,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C701" s="2" t="n">
@@ -27377,7 +27377,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C702" s="2" t="n">
@@ -27416,7 +27416,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C703" s="2" t="n">
@@ -27455,7 +27455,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C704" s="2" t="n">
@@ -27498,7 +27498,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C705" s="2" t="n">
@@ -27576,7 +27576,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C707" s="2" t="n">
@@ -27619,7 +27619,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C708" s="2" t="n">
@@ -27662,7 +27662,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C709" s="2" t="n">
@@ -27705,7 +27705,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C710" s="2" t="n">
@@ -27744,7 +27744,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C711" s="2" t="n">
@@ -27783,7 +27783,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C712" s="2" t="n">
@@ -27822,7 +27822,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C713" s="2" t="n">
@@ -27865,7 +27865,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C714" s="2" t="n">
@@ -27908,7 +27908,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C715" s="2" t="n">
@@ -27947,7 +27947,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C716" s="2" t="n">
@@ -27986,7 +27986,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C717" s="2" t="n">
@@ -28029,7 +28029,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C718" s="2" t="n">
@@ -28107,7 +28107,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C720" s="2" t="n">
@@ -28150,7 +28150,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C721" s="2" t="n">
@@ -28193,7 +28193,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C722" s="2" t="n">
@@ -28236,7 +28236,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C723" s="2" t="n">
@@ -28275,7 +28275,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C724" s="2" t="n">
@@ -28314,7 +28314,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C725" s="2" t="n">
@@ -28353,7 +28353,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C726" s="2" t="n">
@@ -28396,7 +28396,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C727" s="2" t="n">
@@ -28439,7 +28439,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C728" s="2" t="n">
@@ -28478,7 +28478,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C729" s="2" t="n">
@@ -28521,7 +28521,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C730" s="2" t="n">
@@ -28599,7 +28599,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C732" s="2" t="n">
@@ -28642,7 +28642,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C733" s="2" t="n">
@@ -28685,7 +28685,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C734" s="2" t="n">
@@ -28728,7 +28728,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C735" s="2" t="n">
@@ -28767,7 +28767,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C736" s="2" t="n">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C737" s="2" t="n">
@@ -28845,7 +28845,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C738" s="2" t="n">
